--- a/data/di_heat_inputs_6ofr/80w/di_60fr_80w.xlsx
+++ b/data/di_heat_inputs_6ofr/80w/di_60fr_80w.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262:E271"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272:E602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8355,7 +8355,7 @@
         <v>64.25</v>
       </c>
       <c r="E273" s="3">
-        <v>796.83</v>
+        <v>796.78</v>
       </c>
       <c r="F273" s="4">
         <v>80</v>
@@ -8384,7 +8384,7 @@
         <v>64</v>
       </c>
       <c r="E274" s="3">
-        <v>796.88</v>
+        <v>796.78</v>
       </c>
       <c r="F274" s="4">
         <v>80</v>
@@ -8413,7 +8413,7 @@
         <v>64.25</v>
       </c>
       <c r="E275" s="3">
-        <v>796.93</v>
+        <v>796.78</v>
       </c>
       <c r="F275" s="4">
         <v>80</v>
@@ -8442,7 +8442,7 @@
         <v>64.25</v>
       </c>
       <c r="E276" s="3">
-        <v>796.98</v>
+        <v>796.78</v>
       </c>
       <c r="F276" s="4">
         <v>80</v>
@@ -8471,7 +8471,7 @@
         <v>64.5</v>
       </c>
       <c r="E277" s="3">
-        <v>797.03</v>
+        <v>796.78</v>
       </c>
       <c r="F277" s="4">
         <v>80</v>
@@ -8500,7 +8500,7 @@
         <v>64.5</v>
       </c>
       <c r="E278" s="3">
-        <v>797.08</v>
+        <v>796.78</v>
       </c>
       <c r="F278" s="4">
         <v>80</v>
@@ -8529,7 +8529,7 @@
         <v>64.75</v>
       </c>
       <c r="E279" s="3">
-        <v>797.13</v>
+        <v>796.78</v>
       </c>
       <c r="F279" s="4">
         <v>80</v>
@@ -8558,7 +8558,7 @@
         <v>64.75</v>
       </c>
       <c r="E280" s="3">
-        <v>797.18</v>
+        <v>796.78</v>
       </c>
       <c r="F280" s="4">
         <v>80</v>
@@ -8587,7 +8587,7 @@
         <v>65</v>
       </c>
       <c r="E281" s="3">
-        <v>797.23</v>
+        <v>796.78</v>
       </c>
       <c r="F281" s="4">
         <v>80</v>
@@ -8616,7 +8616,7 @@
         <v>65</v>
       </c>
       <c r="E282" s="3">
-        <v>797.28</v>
+        <v>796.78</v>
       </c>
       <c r="F282" s="4">
         <v>80</v>
@@ -8645,7 +8645,7 @@
         <v>65.25</v>
       </c>
       <c r="E283" s="3">
-        <v>797.33</v>
+        <v>796.78</v>
       </c>
       <c r="F283" s="4">
         <v>80</v>
@@ -8674,7 +8674,7 @@
         <v>65.25</v>
       </c>
       <c r="E284" s="3">
-        <v>797.38</v>
+        <v>796.78</v>
       </c>
       <c r="F284" s="4">
         <v>80</v>
@@ -8703,7 +8703,7 @@
         <v>65.25</v>
       </c>
       <c r="E285" s="3">
-        <v>797.43</v>
+        <v>796.78</v>
       </c>
       <c r="F285" s="4">
         <v>80</v>
@@ -8732,7 +8732,7 @@
         <v>65.25</v>
       </c>
       <c r="E286" s="3">
-        <v>797.48</v>
+        <v>796.78</v>
       </c>
       <c r="F286" s="4">
         <v>80</v>
@@ -8761,7 +8761,7 @@
         <v>65.5</v>
       </c>
       <c r="E287" s="3">
-        <v>797.53</v>
+        <v>796.78</v>
       </c>
       <c r="F287" s="4">
         <v>80</v>
@@ -8790,7 +8790,7 @@
         <v>65.5</v>
       </c>
       <c r="E288" s="3">
-        <v>797.58</v>
+        <v>796.78</v>
       </c>
       <c r="F288" s="4">
         <v>80</v>
@@ -8819,7 +8819,7 @@
         <v>65.5</v>
       </c>
       <c r="E289" s="3">
-        <v>797.63</v>
+        <v>796.78</v>
       </c>
       <c r="F289" s="4">
         <v>80</v>
@@ -8848,7 +8848,7 @@
         <v>65.5</v>
       </c>
       <c r="E290" s="3">
-        <v>797.68</v>
+        <v>796.78</v>
       </c>
       <c r="F290" s="4">
         <v>80</v>
@@ -8877,7 +8877,7 @@
         <v>65.25</v>
       </c>
       <c r="E291" s="3">
-        <v>797.73</v>
+        <v>796.78</v>
       </c>
       <c r="F291" s="4">
         <v>80</v>
@@ -8906,7 +8906,7 @@
         <v>65.25</v>
       </c>
       <c r="E292" s="3">
-        <v>797.78</v>
+        <v>796.78</v>
       </c>
       <c r="F292" s="4">
         <v>80</v>
@@ -8935,7 +8935,7 @@
         <v>65.75</v>
       </c>
       <c r="E293" s="3">
-        <v>797.83</v>
+        <v>796.78</v>
       </c>
       <c r="F293" s="4">
         <v>80</v>
@@ -8964,7 +8964,7 @@
         <v>66</v>
       </c>
       <c r="E294" s="3">
-        <v>797.88</v>
+        <v>796.78</v>
       </c>
       <c r="F294" s="4">
         <v>80</v>
@@ -8993,7 +8993,7 @@
         <v>66.25</v>
       </c>
       <c r="E295" s="3">
-        <v>835.86</v>
+        <v>833.56</v>
       </c>
       <c r="F295" s="4">
         <v>80</v>
@@ -9022,7 +9022,7 @@
         <v>66.5</v>
       </c>
       <c r="E296" s="3">
-        <v>835.96</v>
+        <v>833.56</v>
       </c>
       <c r="F296" s="4">
         <v>80</v>
@@ -9051,7 +9051,7 @@
         <v>66.25</v>
       </c>
       <c r="E297" s="3">
-        <v>836.06</v>
+        <v>833.56</v>
       </c>
       <c r="F297" s="4">
         <v>80</v>
@@ -9080,7 +9080,7 @@
         <v>66.25</v>
       </c>
       <c r="E298" s="3">
-        <v>836.16</v>
+        <v>833.56</v>
       </c>
       <c r="F298" s="4">
         <v>80</v>
@@ -9109,7 +9109,7 @@
         <v>66.25</v>
       </c>
       <c r="E299" s="3">
-        <v>836.26</v>
+        <v>833.56</v>
       </c>
       <c r="F299" s="4">
         <v>80</v>
@@ -9138,7 +9138,7 @@
         <v>66.25</v>
       </c>
       <c r="E300" s="3">
-        <v>836.36</v>
+        <v>833.56</v>
       </c>
       <c r="F300" s="4">
         <v>80</v>
@@ -9167,7 +9167,7 @@
         <v>66.25</v>
       </c>
       <c r="E301" s="3">
-        <v>836.46</v>
+        <v>833.56</v>
       </c>
       <c r="F301" s="4">
         <v>80</v>
@@ -9196,7 +9196,7 @@
         <v>66.5</v>
       </c>
       <c r="E302" s="3">
-        <v>836.56</v>
+        <v>833.56</v>
       </c>
       <c r="F302" s="4">
         <v>80</v>
@@ -9225,7 +9225,7 @@
         <v>66.75</v>
       </c>
       <c r="E303" s="3">
-        <v>836.66</v>
+        <v>833.56</v>
       </c>
       <c r="F303" s="4">
         <v>80</v>
@@ -9254,7 +9254,7 @@
         <v>66.75</v>
       </c>
       <c r="E304" s="3">
-        <v>836.76</v>
+        <v>833.56</v>
       </c>
       <c r="F304" s="4">
         <v>80</v>
@@ -9283,7 +9283,7 @@
         <v>67</v>
       </c>
       <c r="E305" s="3">
-        <v>836.86</v>
+        <v>833.56</v>
       </c>
       <c r="F305" s="4">
         <v>80</v>
@@ -9312,7 +9312,7 @@
         <v>66.75</v>
       </c>
       <c r="E306" s="3">
-        <v>836.96</v>
+        <v>833.56</v>
       </c>
       <c r="F306" s="4">
         <v>80</v>
@@ -9341,7 +9341,7 @@
         <v>67</v>
       </c>
       <c r="E307" s="3">
-        <v>837.06</v>
+        <v>833.56</v>
       </c>
       <c r="F307" s="4">
         <v>80</v>
@@ -9370,7 +9370,7 @@
         <v>67</v>
       </c>
       <c r="E308" s="3">
-        <v>837.16</v>
+        <v>833.56</v>
       </c>
       <c r="F308" s="4">
         <v>80</v>
@@ -9399,7 +9399,7 @@
         <v>67.25</v>
       </c>
       <c r="E309" s="3">
-        <v>837.26</v>
+        <v>833.56</v>
       </c>
       <c r="F309" s="4">
         <v>80</v>
@@ -9428,7 +9428,7 @@
         <v>67</v>
       </c>
       <c r="E310" s="3">
-        <v>837.36</v>
+        <v>833.56</v>
       </c>
       <c r="F310" s="4">
         <v>80</v>
@@ -9457,7 +9457,7 @@
         <v>67</v>
       </c>
       <c r="E311" s="3">
-        <v>837.46</v>
+        <v>833.56</v>
       </c>
       <c r="F311" s="4">
         <v>80</v>
@@ -9486,7 +9486,7 @@
         <v>67.25</v>
       </c>
       <c r="E312" s="3">
-        <v>876.34</v>
+        <v>870.34</v>
       </c>
       <c r="F312" s="4">
         <v>80</v>
@@ -9515,7 +9515,7 @@
         <v>67</v>
       </c>
       <c r="E313" s="3">
-        <v>876.49</v>
+        <v>870.34</v>
       </c>
       <c r="F313" s="4">
         <v>80</v>
@@ -9544,7 +9544,7 @@
         <v>67</v>
       </c>
       <c r="E314" s="3">
-        <v>876.64</v>
+        <v>870.34</v>
       </c>
       <c r="F314" s="4">
         <v>80</v>
@@ -9573,7 +9573,7 @@
         <v>67</v>
       </c>
       <c r="E315" s="3">
-        <v>876.79</v>
+        <v>870.34</v>
       </c>
       <c r="F315" s="4">
         <v>80</v>
@@ -9602,7 +9602,7 @@
         <v>67.25</v>
       </c>
       <c r="E316" s="3">
-        <v>876.94</v>
+        <v>870.34</v>
       </c>
       <c r="F316" s="4">
         <v>80</v>
@@ -9631,7 +9631,7 @@
         <v>67.25</v>
       </c>
       <c r="E317" s="3">
-        <v>877.09</v>
+        <v>870.34</v>
       </c>
       <c r="F317" s="4">
         <v>80</v>
@@ -9660,7 +9660,7 @@
         <v>67.5</v>
       </c>
       <c r="E318" s="3">
-        <v>877.24</v>
+        <v>870.34</v>
       </c>
       <c r="F318" s="4">
         <v>80</v>
@@ -9689,7 +9689,7 @@
         <v>67.5</v>
       </c>
       <c r="E319" s="3">
-        <v>877.39</v>
+        <v>870.34</v>
       </c>
       <c r="F319" s="4">
         <v>80</v>
@@ -9718,7 +9718,7 @@
         <v>67.75</v>
       </c>
       <c r="E320" s="3">
-        <v>877.54</v>
+        <v>870.34</v>
       </c>
       <c r="F320" s="4">
         <v>80</v>
@@ -9747,7 +9747,7 @@
         <v>68</v>
       </c>
       <c r="E321" s="3">
-        <v>877.69</v>
+        <v>870.34</v>
       </c>
       <c r="F321" s="4">
         <v>80</v>
@@ -9776,7 +9776,7 @@
         <v>67.75</v>
       </c>
       <c r="E322" s="3">
-        <v>877.84</v>
+        <v>870.34</v>
       </c>
       <c r="F322" s="4">
         <v>80</v>
@@ -9805,7 +9805,7 @@
         <v>67.75</v>
       </c>
       <c r="E323" s="3">
-        <v>877.99</v>
+        <v>870.34</v>
       </c>
       <c r="F323" s="4">
         <v>80</v>
@@ -9834,7 +9834,7 @@
         <v>68</v>
       </c>
       <c r="E324" s="3">
-        <v>878.14</v>
+        <v>870.34</v>
       </c>
       <c r="F324" s="4">
         <v>80</v>
@@ -9863,7 +9863,7 @@
         <v>67.75</v>
       </c>
       <c r="E325" s="3">
-        <v>878.29</v>
+        <v>870.34</v>
       </c>
       <c r="F325" s="4">
         <v>80</v>
@@ -9892,7 +9892,7 @@
         <v>67.75</v>
       </c>
       <c r="E326" s="3">
-        <v>878.44</v>
+        <v>870.34</v>
       </c>
       <c r="F326" s="4">
         <v>80</v>
@@ -9921,7 +9921,7 @@
         <v>67.75</v>
       </c>
       <c r="E327" s="3">
-        <v>878.59</v>
+        <v>870.34</v>
       </c>
       <c r="F327" s="4">
         <v>80</v>
@@ -9950,7 +9950,7 @@
         <v>67.75</v>
       </c>
       <c r="E328" s="3">
-        <v>878.74</v>
+        <v>870.34</v>
       </c>
       <c r="F328" s="4">
         <v>80</v>
@@ -9979,7 +9979,7 @@
         <v>68</v>
       </c>
       <c r="E329" s="3">
-        <v>878.89</v>
+        <v>870.34</v>
       </c>
       <c r="F329" s="4">
         <v>80</v>
@@ -10008,7 +10008,7 @@
         <v>68.5</v>
       </c>
       <c r="E330" s="3">
-        <v>879.04</v>
+        <v>870.34</v>
       </c>
       <c r="F330" s="4">
         <v>80</v>
@@ -10037,7 +10037,7 @@
         <v>68.25</v>
       </c>
       <c r="E331" s="3">
-        <v>879.19</v>
+        <v>870.34</v>
       </c>
       <c r="F331" s="4">
         <v>80</v>
@@ -10066,7 +10066,7 @@
         <v>68.5</v>
       </c>
       <c r="E332" s="3">
-        <v>919.12</v>
+        <v>907.12</v>
       </c>
       <c r="F332" s="4">
         <v>80</v>
@@ -10095,7 +10095,7 @@
         <v>68.5</v>
       </c>
       <c r="E333" s="3">
-        <v>919.32</v>
+        <v>907.12</v>
       </c>
       <c r="F333" s="4">
         <v>80</v>
@@ -10124,7 +10124,7 @@
         <v>69</v>
       </c>
       <c r="E334" s="3">
-        <v>919.52</v>
+        <v>907.12</v>
       </c>
       <c r="F334" s="4">
         <v>80</v>
@@ -10153,7 +10153,7 @@
         <v>69</v>
       </c>
       <c r="E335" s="3">
-        <v>919.72</v>
+        <v>907.12</v>
       </c>
       <c r="F335" s="4">
         <v>80</v>
@@ -10182,7 +10182,7 @@
         <v>69</v>
       </c>
       <c r="E336" s="3">
-        <v>919.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F336" s="4">
         <v>80</v>
@@ -10211,7 +10211,7 @@
         <v>69</v>
       </c>
       <c r="E337" s="3">
-        <v>920.12</v>
+        <v>907.12</v>
       </c>
       <c r="F337" s="4">
         <v>80</v>
@@ -10240,7 +10240,7 @@
         <v>69</v>
       </c>
       <c r="E338" s="3">
-        <v>920.32</v>
+        <v>907.12</v>
       </c>
       <c r="F338" s="4">
         <v>80</v>
@@ -10269,7 +10269,7 @@
         <v>69</v>
       </c>
       <c r="E339" s="3">
-        <v>920.52</v>
+        <v>907.12</v>
       </c>
       <c r="F339" s="4">
         <v>80</v>
@@ -10298,7 +10298,7 @@
         <v>69.25</v>
       </c>
       <c r="E340" s="3">
-        <v>920.72</v>
+        <v>907.12</v>
       </c>
       <c r="F340" s="4">
         <v>80</v>
@@ -10327,7 +10327,7 @@
         <v>69.25</v>
       </c>
       <c r="E341" s="3">
-        <v>920.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F341" s="4">
         <v>80</v>
@@ -10356,7 +10356,7 @@
         <v>69.5</v>
       </c>
       <c r="E342" s="3">
-        <v>921.12</v>
+        <v>907.12</v>
       </c>
       <c r="F342" s="4">
         <v>80</v>
@@ -10385,7 +10385,7 @@
         <v>69.25</v>
       </c>
       <c r="E343" s="3">
-        <v>921.32</v>
+        <v>907.12</v>
       </c>
       <c r="F343" s="4">
         <v>80</v>
@@ -10414,7 +10414,7 @@
         <v>69.75</v>
       </c>
       <c r="E344" s="3">
-        <v>921.52</v>
+        <v>907.12</v>
       </c>
       <c r="F344" s="4">
         <v>80</v>
@@ -10443,7 +10443,7 @@
         <v>69.5</v>
       </c>
       <c r="E345" s="3">
-        <v>921.72</v>
+        <v>907.12</v>
       </c>
       <c r="F345" s="4">
         <v>80</v>
@@ -10472,7 +10472,7 @@
         <v>69.5</v>
       </c>
       <c r="E346" s="3">
-        <v>921.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F346" s="4">
         <v>80</v>
@@ -10501,7 +10501,7 @@
         <v>68.75</v>
       </c>
       <c r="E347" s="3">
-        <v>922.12</v>
+        <v>907.12</v>
       </c>
       <c r="F347" s="4">
         <v>80</v>
@@ -10530,7 +10530,7 @@
         <v>69</v>
       </c>
       <c r="E348" s="3">
-        <v>922.32</v>
+        <v>907.12</v>
       </c>
       <c r="F348" s="4">
         <v>80</v>
@@ -10559,7 +10559,7 @@
         <v>70</v>
       </c>
       <c r="E349" s="3">
-        <v>922.52</v>
+        <v>907.12</v>
       </c>
       <c r="F349" s="4">
         <v>80</v>
@@ -10588,7 +10588,7 @@
         <v>70</v>
       </c>
       <c r="E350" s="3">
-        <v>922.72</v>
+        <v>907.12</v>
       </c>
       <c r="F350" s="4">
         <v>80</v>
@@ -10617,7 +10617,7 @@
         <v>70.25</v>
       </c>
       <c r="E351" s="3">
-        <v>922.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F351" s="4">
         <v>80</v>
@@ -10646,7 +10646,7 @@
         <v>70.5</v>
       </c>
       <c r="E352" s="3">
-        <v>923.12</v>
+        <v>907.12</v>
       </c>
       <c r="F352" s="4">
         <v>80</v>
@@ -10675,7 +10675,7 @@
         <v>70.5</v>
       </c>
       <c r="E353" s="3">
-        <v>923.32</v>
+        <v>907.12</v>
       </c>
       <c r="F353" s="4">
         <v>80</v>
@@ -10704,7 +10704,7 @@
         <v>70.5</v>
       </c>
       <c r="E354" s="3">
-        <v>923.52</v>
+        <v>907.12</v>
       </c>
       <c r="F354" s="4">
         <v>80</v>
@@ -10733,7 +10733,7 @@
         <v>70.75</v>
       </c>
       <c r="E355" s="3">
-        <v>923.72</v>
+        <v>907.12</v>
       </c>
       <c r="F355" s="4">
         <v>80</v>
@@ -10762,7 +10762,7 @@
         <v>70.75</v>
       </c>
       <c r="E356" s="3">
-        <v>923.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F356" s="4">
         <v>80</v>
@@ -10791,7 +10791,7 @@
         <v>70.25</v>
       </c>
       <c r="E357" s="3">
-        <v>924.12</v>
+        <v>907.12</v>
       </c>
       <c r="F357" s="4">
         <v>80</v>
@@ -10820,7 +10820,7 @@
         <v>70.5</v>
       </c>
       <c r="E358" s="3">
-        <v>924.32</v>
+        <v>907.12</v>
       </c>
       <c r="F358" s="4">
         <v>80</v>
@@ -10849,7 +10849,7 @@
         <v>70.5</v>
       </c>
       <c r="E359" s="3">
-        <v>924.52</v>
+        <v>907.12</v>
       </c>
       <c r="F359" s="4">
         <v>80</v>
@@ -10878,7 +10878,7 @@
         <v>70.75</v>
       </c>
       <c r="E360" s="3">
-        <v>924.72</v>
+        <v>907.12</v>
       </c>
       <c r="F360" s="4">
         <v>80</v>
@@ -10907,7 +10907,7 @@
         <v>70.75</v>
       </c>
       <c r="E361" s="3">
-        <v>924.92000000000007</v>
+        <v>907.12</v>
       </c>
       <c r="F361" s="4">
         <v>80</v>
@@ -10936,7 +10936,7 @@
         <v>70.75</v>
       </c>
       <c r="E362" s="3">
-        <v>925.12</v>
+        <v>907.12</v>
       </c>
       <c r="F362" s="4">
         <v>80</v>
@@ -10965,7 +10965,7 @@
         <v>70.75</v>
       </c>
       <c r="E363" s="3">
-        <v>925.32</v>
+        <v>907.12</v>
       </c>
       <c r="F363" s="4">
         <v>80</v>
@@ -10994,7 +10994,7 @@
         <v>70.75</v>
       </c>
       <c r="E364" s="3">
-        <v>925.52</v>
+        <v>907.12</v>
       </c>
       <c r="F364" s="4">
         <v>80</v>
@@ -11023,7 +11023,7 @@
         <v>70.75</v>
       </c>
       <c r="E365" s="3">
-        <v>925.72</v>
+        <v>907.12</v>
       </c>
       <c r="F365" s="4">
         <v>80</v>
@@ -11052,7 +11052,7 @@
         <v>70.75</v>
       </c>
       <c r="E366" s="3">
-        <v>967.4</v>
+        <v>943.9</v>
       </c>
       <c r="F366" s="4">
         <v>80</v>
@@ -11081,7 +11081,7 @@
         <v>70.75</v>
       </c>
       <c r="E367" s="3">
-        <v>967.65</v>
+        <v>943.9</v>
       </c>
       <c r="F367" s="4">
         <v>80</v>
@@ -11110,7 +11110,7 @@
         <v>70.75</v>
       </c>
       <c r="E368" s="3">
-        <v>967.9</v>
+        <v>943.9</v>
       </c>
       <c r="F368" s="4">
         <v>80</v>
@@ -11139,7 +11139,7 @@
         <v>71</v>
       </c>
       <c r="E369" s="3">
-        <v>968.15</v>
+        <v>943.9</v>
       </c>
       <c r="F369" s="4">
         <v>80</v>
@@ -11168,7 +11168,7 @@
         <v>71.5</v>
       </c>
       <c r="E370" s="3">
-        <v>968.4</v>
+        <v>943.9</v>
       </c>
       <c r="F370" s="4">
         <v>80</v>
@@ -11197,7 +11197,7 @@
         <v>71.75</v>
       </c>
       <c r="E371" s="3">
-        <v>968.65</v>
+        <v>943.9</v>
       </c>
       <c r="F371" s="4">
         <v>80</v>
@@ -11226,7 +11226,7 @@
         <v>71.5</v>
       </c>
       <c r="E372" s="3">
-        <v>968.9</v>
+        <v>943.9</v>
       </c>
       <c r="F372" s="4">
         <v>80</v>
@@ -11255,7 +11255,7 @@
         <v>71.25</v>
       </c>
       <c r="E373" s="3">
-        <v>969.15</v>
+        <v>943.9</v>
       </c>
       <c r="F373" s="4">
         <v>80</v>
@@ -11284,7 +11284,7 @@
         <v>71</v>
       </c>
       <c r="E374" s="3">
-        <v>969.4</v>
+        <v>943.9</v>
       </c>
       <c r="F374" s="4">
         <v>80</v>
@@ -11313,7 +11313,7 @@
         <v>71.25</v>
       </c>
       <c r="E375" s="3">
-        <v>969.65</v>
+        <v>943.9</v>
       </c>
       <c r="F375" s="4">
         <v>80</v>
@@ -11342,7 +11342,7 @@
         <v>71.25</v>
       </c>
       <c r="E376" s="3">
-        <v>969.9</v>
+        <v>943.9</v>
       </c>
       <c r="F376" s="4">
         <v>80</v>
@@ -11371,7 +11371,7 @@
         <v>71.5</v>
       </c>
       <c r="E377" s="3">
-        <v>970.15</v>
+        <v>943.9</v>
       </c>
       <c r="F377" s="4">
         <v>80</v>
@@ -11400,7 +11400,7 @@
         <v>71</v>
       </c>
       <c r="E378" s="3">
-        <v>970.4</v>
+        <v>943.9</v>
       </c>
       <c r="F378" s="4">
         <v>80</v>
@@ -11429,7 +11429,7 @@
         <v>71.25</v>
       </c>
       <c r="E379" s="3">
-        <v>970.65</v>
+        <v>943.9</v>
       </c>
       <c r="F379" s="4">
         <v>80</v>
@@ -11458,7 +11458,7 @@
         <v>71.75</v>
       </c>
       <c r="E380" s="3">
-        <v>970.9</v>
+        <v>943.9</v>
       </c>
       <c r="F380" s="4">
         <v>80</v>
@@ -11487,7 +11487,7 @@
         <v>71.5</v>
       </c>
       <c r="E381" s="3">
-        <v>971.15</v>
+        <v>943.9</v>
       </c>
       <c r="F381" s="4">
         <v>80</v>
@@ -11516,7 +11516,7 @@
         <v>71.75</v>
       </c>
       <c r="E382" s="3">
-        <v>971.4</v>
+        <v>943.9</v>
       </c>
       <c r="F382" s="4">
         <v>80</v>
@@ -11545,7 +11545,7 @@
         <v>71.5</v>
       </c>
       <c r="E383" s="3">
-        <v>971.65</v>
+        <v>943.9</v>
       </c>
       <c r="F383" s="4">
         <v>80</v>
@@ -11574,7 +11574,7 @@
         <v>71.5</v>
       </c>
       <c r="E384" s="3">
-        <v>971.9</v>
+        <v>943.9</v>
       </c>
       <c r="F384" s="4">
         <v>80</v>
@@ -11603,7 +11603,7 @@
         <v>71.5</v>
       </c>
       <c r="E385" s="3">
-        <v>972.15</v>
+        <v>943.9</v>
       </c>
       <c r="F385" s="4">
         <v>80</v>
@@ -11632,7 +11632,7 @@
         <v>71.5</v>
       </c>
       <c r="E386" s="3">
-        <v>972.4</v>
+        <v>943.9</v>
       </c>
       <c r="F386" s="4">
         <v>80</v>
@@ -11661,7 +11661,7 @@
         <v>71.25</v>
       </c>
       <c r="E387" s="3">
-        <v>972.65</v>
+        <v>943.9</v>
       </c>
       <c r="F387" s="4">
         <v>80</v>
@@ -11690,7 +11690,7 @@
         <v>71.5</v>
       </c>
       <c r="E388" s="3">
-        <v>972.9</v>
+        <v>943.9</v>
       </c>
       <c r="F388" s="4">
         <v>80</v>
@@ -11719,7 +11719,7 @@
         <v>71.75</v>
       </c>
       <c r="E389" s="3">
-        <v>1015.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F389" s="4">
         <v>80</v>
@@ -11748,7 +11748,7 @@
         <v>71.75</v>
       </c>
       <c r="E390" s="3">
-        <v>1016.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F390" s="4">
         <v>80</v>
@@ -11777,7 +11777,7 @@
         <v>71.75</v>
       </c>
       <c r="E391" s="3">
-        <v>1016.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F391" s="4">
         <v>80</v>
@@ -11806,7 +11806,7 @@
         <v>72</v>
       </c>
       <c r="E392" s="3">
-        <v>1016.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F392" s="4">
         <v>80</v>
@@ -11835,7 +11835,7 @@
         <v>71.75</v>
       </c>
       <c r="E393" s="3">
-        <v>1016.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F393" s="4">
         <v>80</v>
@@ -11864,7 +11864,7 @@
         <v>71.75</v>
       </c>
       <c r="E394" s="3">
-        <v>1017.28</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F394" s="4">
         <v>80</v>
@@ -11893,7 +11893,7 @@
         <v>71.75</v>
       </c>
       <c r="E395" s="3">
-        <v>1017.5799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F395" s="4">
         <v>80</v>
@@ -11922,7 +11922,7 @@
         <v>71.5</v>
       </c>
       <c r="E396" s="3">
-        <v>1017.88</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F396" s="4">
         <v>80</v>
@@ -11951,7 +11951,7 @@
         <v>71.75</v>
       </c>
       <c r="E397" s="3">
-        <v>1018.1800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F397" s="4">
         <v>80</v>
@@ -11980,7 +11980,7 @@
         <v>72</v>
       </c>
       <c r="E398" s="3">
-        <v>1018.48</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F398" s="4">
         <v>80</v>
@@ -12009,7 +12009,7 @@
         <v>72.25</v>
       </c>
       <c r="E399" s="3">
-        <v>1018.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F399" s="4">
         <v>80</v>
@@ -12038,7 +12038,7 @@
         <v>72.5</v>
       </c>
       <c r="E400" s="3">
-        <v>1019.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F400" s="4">
         <v>80</v>
@@ -12067,7 +12067,7 @@
         <v>72.5</v>
       </c>
       <c r="E401" s="3">
-        <v>1019.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F401" s="4">
         <v>80</v>
@@ -12096,7 +12096,7 @@
         <v>72.25</v>
       </c>
       <c r="E402" s="3">
-        <v>1019.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F402" s="4">
         <v>80</v>
@@ -12125,7 +12125,7 @@
         <v>72.75</v>
       </c>
       <c r="E403" s="3">
-        <v>1019.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F403" s="4">
         <v>80</v>
@@ -12154,7 +12154,7 @@
         <v>72.75</v>
       </c>
       <c r="E404" s="3">
-        <v>1020.28</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F404" s="4">
         <v>80</v>
@@ -12183,7 +12183,7 @@
         <v>72.75</v>
       </c>
       <c r="E405" s="3">
-        <v>1020.5799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F405" s="4">
         <v>80</v>
@@ -12212,7 +12212,7 @@
         <v>72.75</v>
       </c>
       <c r="E406" s="3">
-        <v>1020.88</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F406" s="4">
         <v>80</v>
@@ -12241,7 +12241,7 @@
         <v>72.75</v>
       </c>
       <c r="E407" s="3">
-        <v>1021.1800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F407" s="4">
         <v>80</v>
@@ -12270,7 +12270,7 @@
         <v>73</v>
       </c>
       <c r="E408" s="3">
-        <v>1021.48</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F408" s="4">
         <v>80</v>
@@ -12299,7 +12299,7 @@
         <v>73.25</v>
       </c>
       <c r="E409" s="3">
-        <v>1021.78</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F409" s="4">
         <v>80</v>
@@ -12328,7 +12328,7 @@
         <v>73.25</v>
       </c>
       <c r="E410" s="3">
-        <v>1022.0799999999999</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F410" s="4">
         <v>80</v>
@@ -12357,7 +12357,7 @@
         <v>73.25</v>
       </c>
       <c r="E411" s="3">
-        <v>1022.38</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F411" s="4">
         <v>80</v>
@@ -12386,7 +12386,7 @@
         <v>73.25</v>
       </c>
       <c r="E412" s="3">
-        <v>1022.6800000000001</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F412" s="4">
         <v>80</v>
@@ -12415,7 +12415,7 @@
         <v>73.25</v>
       </c>
       <c r="E413" s="3">
-        <v>1022.98</v>
+        <v>980.68000000000006</v>
       </c>
       <c r="F413" s="4">
         <v>80</v>
@@ -12444,7 +12444,7 @@
         <v>73.75</v>
       </c>
       <c r="E414" s="3">
-        <v>1067.1599999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="F414" s="4">
         <v>80</v>
@@ -12473,7 +12473,7 @@
         <v>73.75</v>
       </c>
       <c r="E415" s="3">
-        <v>1067.51</v>
+        <v>1017.46</v>
       </c>
       <c r="F415" s="4">
         <v>80</v>
@@ -12502,7 +12502,7 @@
         <v>73.75</v>
       </c>
       <c r="E416" s="3">
-        <v>1067.8600000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="F416" s="4">
         <v>80</v>
@@ -12531,7 +12531,7 @@
         <v>73.5</v>
       </c>
       <c r="E417" s="3">
-        <v>1068.21</v>
+        <v>1017.46</v>
       </c>
       <c r="F417" s="4">
         <v>80</v>
@@ -12560,7 +12560,7 @@
         <v>73.5</v>
       </c>
       <c r="E418" s="3">
-        <v>1068.56</v>
+        <v>1017.46</v>
       </c>
       <c r="F418" s="4">
         <v>80</v>
@@ -12589,7 +12589,7 @@
         <v>73.25</v>
       </c>
       <c r="E419" s="3">
-        <v>1068.9099999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="F419" s="4">
         <v>80</v>
@@ -12618,7 +12618,7 @@
         <v>73.5</v>
       </c>
       <c r="E420" s="3">
-        <v>1069.26</v>
+        <v>1017.46</v>
       </c>
       <c r="F420" s="4">
         <v>80</v>
@@ -12647,7 +12647,7 @@
         <v>73.5</v>
       </c>
       <c r="E421" s="3">
-        <v>1069.6100000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="F421" s="4">
         <v>80</v>
@@ -12676,7 +12676,7 @@
         <v>73.5</v>
       </c>
       <c r="E422" s="3">
-        <v>1069.96</v>
+        <v>1017.46</v>
       </c>
       <c r="F422" s="4">
         <v>80</v>
@@ -12705,7 +12705,7 @@
         <v>73.75</v>
       </c>
       <c r="E423" s="3">
-        <v>1070.31</v>
+        <v>1017.46</v>
       </c>
       <c r="F423" s="4">
         <v>80</v>
@@ -12734,7 +12734,7 @@
         <v>73.5</v>
       </c>
       <c r="E424" s="3">
-        <v>1070.6599999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="F424" s="4">
         <v>80</v>
@@ -12763,7 +12763,7 @@
         <v>73.5</v>
       </c>
       <c r="E425" s="3">
-        <v>1071.01</v>
+        <v>1017.46</v>
       </c>
       <c r="F425" s="4">
         <v>80</v>
@@ -12792,7 +12792,7 @@
         <v>73.75</v>
       </c>
       <c r="E426" s="3">
-        <v>1071.3600000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="F426" s="4">
         <v>80</v>
@@ -12821,7 +12821,7 @@
         <v>73.5</v>
       </c>
       <c r="E427" s="3">
-        <v>1071.71</v>
+        <v>1017.46</v>
       </c>
       <c r="F427" s="4">
         <v>80</v>
@@ -12850,7 +12850,7 @@
         <v>73.5</v>
       </c>
       <c r="E428" s="3">
-        <v>1072.06</v>
+        <v>1017.46</v>
       </c>
       <c r="F428" s="4">
         <v>80</v>
@@ -12879,7 +12879,7 @@
         <v>73.5</v>
       </c>
       <c r="E429" s="3">
-        <v>1072.4099999999999</v>
+        <v>1017.46</v>
       </c>
       <c r="F429" s="4">
         <v>80</v>
@@ -12908,7 +12908,7 @@
         <v>74.25</v>
       </c>
       <c r="E430" s="3">
-        <v>1072.76</v>
+        <v>1017.46</v>
       </c>
       <c r="F430" s="4">
         <v>80</v>
@@ -12937,7 +12937,7 @@
         <v>74.5</v>
       </c>
       <c r="E431" s="3">
-        <v>1073.1100000000001</v>
+        <v>1017.46</v>
       </c>
       <c r="F431" s="4">
         <v>80</v>
@@ -12966,7 +12966,7 @@
         <v>74.5</v>
       </c>
       <c r="E432" s="3">
-        <v>1118.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F432" s="4">
         <v>80</v>
@@ -12995,7 +12995,7 @@
         <v>74.5</v>
       </c>
       <c r="E433" s="3">
-        <v>1118.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F433" s="4">
         <v>80</v>
@@ -13024,7 +13024,7 @@
         <v>74</v>
       </c>
       <c r="E434" s="3">
-        <v>1119.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F434" s="4">
         <v>80</v>
@@ -13053,7 +13053,7 @@
         <v>73.75</v>
       </c>
       <c r="E435" s="3">
-        <v>1119.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F435" s="4">
         <v>80</v>
@@ -13082,7 +13082,7 @@
         <v>74.25</v>
       </c>
       <c r="E436" s="3">
-        <v>1119.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F436" s="4">
         <v>80</v>
@@ -13111,7 +13111,7 @@
         <v>74</v>
       </c>
       <c r="E437" s="3">
-        <v>1120.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F437" s="4">
         <v>80</v>
@@ -13140,7 +13140,7 @@
         <v>74.25</v>
       </c>
       <c r="E438" s="3">
-        <v>1120.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F438" s="4">
         <v>80</v>
@@ -13169,7 +13169,7 @@
         <v>74.25</v>
       </c>
       <c r="E439" s="3">
-        <v>1121.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F439" s="4">
         <v>80</v>
@@ -13198,7 +13198,7 @@
         <v>74.25</v>
       </c>
       <c r="E440" s="3">
-        <v>1121.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F440" s="4">
         <v>80</v>
@@ -13227,7 +13227,7 @@
         <v>74</v>
       </c>
       <c r="E441" s="3">
-        <v>1121.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F441" s="4">
         <v>80</v>
@@ -13256,7 +13256,7 @@
         <v>73.75</v>
       </c>
       <c r="E442" s="3">
-        <v>1122.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F442" s="4">
         <v>80</v>
@@ -13285,7 +13285,7 @@
         <v>73.5</v>
       </c>
       <c r="E443" s="3">
-        <v>1122.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F443" s="4">
         <v>80</v>
@@ -13314,7 +13314,7 @@
         <v>73.75</v>
       </c>
       <c r="E444" s="3">
-        <v>1123.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F444" s="4">
         <v>80</v>
@@ -13343,7 +13343,7 @@
         <v>74</v>
       </c>
       <c r="E445" s="3">
-        <v>1123.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F445" s="4">
         <v>80</v>
@@ -13372,7 +13372,7 @@
         <v>74</v>
       </c>
       <c r="E446" s="3">
-        <v>1123.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F446" s="4">
         <v>80</v>
@@ -13401,7 +13401,7 @@
         <v>74.25</v>
       </c>
       <c r="E447" s="3">
-        <v>1124.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F447" s="4">
         <v>80</v>
@@ -13430,7 +13430,7 @@
         <v>74.25</v>
       </c>
       <c r="E448" s="3">
-        <v>1124.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F448" s="4">
         <v>80</v>
@@ -13459,7 +13459,7 @@
         <v>74</v>
       </c>
       <c r="E449" s="3">
-        <v>1125.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F449" s="4">
         <v>80</v>
@@ -13488,7 +13488,7 @@
         <v>73.75</v>
       </c>
       <c r="E450" s="3">
-        <v>1125.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F450" s="4">
         <v>80</v>
@@ -13517,7 +13517,7 @@
         <v>74</v>
       </c>
       <c r="E451" s="3">
-        <v>1125.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F451" s="4">
         <v>80</v>
@@ -13546,7 +13546,7 @@
         <v>74.25</v>
       </c>
       <c r="E452" s="3">
-        <v>1126.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F452" s="4">
         <v>80</v>
@@ -13575,7 +13575,7 @@
         <v>74.25</v>
       </c>
       <c r="E453" s="3">
-        <v>1126.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F453" s="4">
         <v>80</v>
@@ -13604,7 +13604,7 @@
         <v>73.75</v>
       </c>
       <c r="E454" s="3">
-        <v>1127.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F454" s="4">
         <v>80</v>
@@ -13633,7 +13633,7 @@
         <v>74</v>
       </c>
       <c r="E455" s="3">
-        <v>1127.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F455" s="4">
         <v>80</v>
@@ -13662,7 +13662,7 @@
         <v>74</v>
       </c>
       <c r="E456" s="3">
-        <v>1127.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F456" s="4">
         <v>80</v>
@@ -13691,7 +13691,7 @@
         <v>75</v>
       </c>
       <c r="E457" s="3">
-        <v>1128.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F457" s="4">
         <v>80</v>
@@ -13720,7 +13720,7 @@
         <v>75.75</v>
       </c>
       <c r="E458" s="3">
-        <v>1128.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F458" s="4">
         <v>80</v>
@@ -13749,7 +13749,7 @@
         <v>75.75</v>
       </c>
       <c r="E459" s="3">
-        <v>1129.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F459" s="4">
         <v>80</v>
@@ -13778,7 +13778,7 @@
         <v>75.75</v>
       </c>
       <c r="E460" s="3">
-        <v>1129.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F460" s="4">
         <v>80</v>
@@ -13807,7 +13807,7 @@
         <v>75.75</v>
       </c>
       <c r="E461" s="3">
-        <v>1129.8400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F461" s="4">
         <v>80</v>
@@ -13836,7 +13836,7 @@
         <v>75.75</v>
       </c>
       <c r="E462" s="3">
-        <v>1130.24</v>
+        <v>1054.24</v>
       </c>
       <c r="F462" s="4">
         <v>80</v>
@@ -13865,7 +13865,7 @@
         <v>75.75</v>
       </c>
       <c r="E463" s="3">
-        <v>1130.6400000000001</v>
+        <v>1054.24</v>
       </c>
       <c r="F463" s="4">
         <v>80</v>
@@ -13894,7 +13894,7 @@
         <v>75.75</v>
       </c>
       <c r="E464" s="3">
-        <v>1131.04</v>
+        <v>1054.24</v>
       </c>
       <c r="F464" s="4">
         <v>80</v>
@@ -13923,7 +13923,7 @@
         <v>75.5</v>
       </c>
       <c r="E465" s="3">
-        <v>1131.44</v>
+        <v>1054.24</v>
       </c>
       <c r="F465" s="4">
         <v>80</v>
@@ -13952,7 +13952,7 @@
         <v>75.5</v>
       </c>
       <c r="E466" s="3">
-        <v>1178.32</v>
+        <v>1091.02</v>
       </c>
       <c r="F466" s="4">
         <v>80</v>
@@ -13981,7 +13981,7 @@
         <v>75.75</v>
       </c>
       <c r="E467" s="3">
-        <v>1178.77</v>
+        <v>1091.02</v>
       </c>
       <c r="F467" s="4">
         <v>80</v>
@@ -14010,7 +14010,7 @@
         <v>75.75</v>
       </c>
       <c r="E468" s="3">
-        <v>1179.22</v>
+        <v>1091.02</v>
       </c>
       <c r="F468" s="4">
         <v>80</v>
@@ -14039,7 +14039,7 @@
         <v>75.25</v>
       </c>
       <c r="E469" s="3">
-        <v>1179.67</v>
+        <v>1091.02</v>
       </c>
       <c r="F469" s="4">
         <v>80</v>
@@ -14068,7 +14068,7 @@
         <v>75.25</v>
       </c>
       <c r="E470" s="3">
-        <v>1180.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F470" s="4">
         <v>80</v>
@@ -14097,7 +14097,7 @@
         <v>75</v>
       </c>
       <c r="E471" s="3">
-        <v>1180.57</v>
+        <v>1091.02</v>
       </c>
       <c r="F471" s="4">
         <v>80</v>
@@ -14126,7 +14126,7 @@
         <v>75</v>
       </c>
       <c r="E472" s="3">
-        <v>1181.02</v>
+        <v>1091.02</v>
       </c>
       <c r="F472" s="4">
         <v>80</v>
@@ -14155,7 +14155,7 @@
         <v>75.25</v>
       </c>
       <c r="E473" s="3">
-        <v>1181.47</v>
+        <v>1091.02</v>
       </c>
       <c r="F473" s="4">
         <v>80</v>
@@ -14184,7 +14184,7 @@
         <v>75.25</v>
       </c>
       <c r="E474" s="3">
-        <v>1181.92</v>
+        <v>1091.02</v>
       </c>
       <c r="F474" s="4">
         <v>80</v>
@@ -14213,7 +14213,7 @@
         <v>74.5</v>
       </c>
       <c r="E475" s="3">
-        <v>1182.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F475" s="4">
         <v>80</v>
@@ -14242,7 +14242,7 @@
         <v>74.5</v>
       </c>
       <c r="E476" s="3">
-        <v>1182.82</v>
+        <v>1091.02</v>
       </c>
       <c r="F476" s="4">
         <v>80</v>
@@ -14271,7 +14271,7 @@
         <v>74.25</v>
       </c>
       <c r="E477" s="3">
-        <v>1183.27</v>
+        <v>1091.02</v>
       </c>
       <c r="F477" s="4">
         <v>80</v>
@@ -14300,7 +14300,7 @@
         <v>74.25</v>
       </c>
       <c r="E478" s="3">
-        <v>1183.72</v>
+        <v>1091.02</v>
       </c>
       <c r="F478" s="4">
         <v>80</v>
@@ -14329,7 +14329,7 @@
         <v>74.5</v>
       </c>
       <c r="E479" s="3">
-        <v>1184.17</v>
+        <v>1091.02</v>
       </c>
       <c r="F479" s="4">
         <v>80</v>
@@ -14358,7 +14358,7 @@
         <v>74.5</v>
       </c>
       <c r="E480" s="3">
-        <v>1184.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F480" s="4">
         <v>80</v>
@@ -14387,7 +14387,7 @@
         <v>74.5</v>
       </c>
       <c r="E481" s="3">
-        <v>1185.07</v>
+        <v>1091.02</v>
       </c>
       <c r="F481" s="4">
         <v>80</v>
@@ -14416,7 +14416,7 @@
         <v>74.5</v>
       </c>
       <c r="E482" s="3">
-        <v>1185.52</v>
+        <v>1091.02</v>
       </c>
       <c r="F482" s="4">
         <v>80</v>
@@ -14445,7 +14445,7 @@
         <v>74.5</v>
       </c>
       <c r="E483" s="3">
-        <v>1185.97</v>
+        <v>1091.02</v>
       </c>
       <c r="F483" s="4">
         <v>80</v>
@@ -14474,7 +14474,7 @@
         <v>74.5</v>
       </c>
       <c r="E484" s="3">
-        <v>1186.42</v>
+        <v>1091.02</v>
       </c>
       <c r="F484" s="4">
         <v>80</v>
@@ -14503,7 +14503,7 @@
         <v>74.5</v>
       </c>
       <c r="E485" s="3">
-        <v>1186.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F485" s="4">
         <v>80</v>
@@ -14532,7 +14532,7 @@
         <v>75</v>
       </c>
       <c r="E486" s="3">
-        <v>1187.32</v>
+        <v>1091.02</v>
       </c>
       <c r="F486" s="4">
         <v>80</v>
@@ -14561,7 +14561,7 @@
         <v>75.25</v>
       </c>
       <c r="E487" s="3">
-        <v>1187.77</v>
+        <v>1091.02</v>
       </c>
       <c r="F487" s="4">
         <v>80</v>
@@ -14590,7 +14590,7 @@
         <v>75.25</v>
       </c>
       <c r="E488" s="3">
-        <v>1188.22</v>
+        <v>1091.02</v>
       </c>
       <c r="F488" s="4">
         <v>80</v>
@@ -14619,7 +14619,7 @@
         <v>74.75</v>
       </c>
       <c r="E489" s="3">
-        <v>1188.67</v>
+        <v>1091.02</v>
       </c>
       <c r="F489" s="4">
         <v>80</v>
@@ -14648,7 +14648,7 @@
         <v>75</v>
       </c>
       <c r="E490" s="3">
-        <v>1189.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F490" s="4">
         <v>80</v>
@@ -14677,7 +14677,7 @@
         <v>75</v>
       </c>
       <c r="E491" s="3">
-        <v>1189.57</v>
+        <v>1091.02</v>
       </c>
       <c r="F491" s="4">
         <v>80</v>
@@ -14706,7 +14706,7 @@
         <v>75</v>
       </c>
       <c r="E492" s="3">
-        <v>1190.02</v>
+        <v>1091.02</v>
       </c>
       <c r="F492" s="4">
         <v>80</v>
@@ -14735,7 +14735,7 @@
         <v>75</v>
       </c>
       <c r="E493" s="3">
-        <v>1190.47</v>
+        <v>1091.02</v>
       </c>
       <c r="F493" s="4">
         <v>80</v>
@@ -14764,7 +14764,7 @@
         <v>74.75</v>
       </c>
       <c r="E494" s="3">
-        <v>1190.92</v>
+        <v>1091.02</v>
       </c>
       <c r="F494" s="4">
         <v>80</v>
@@ -14793,7 +14793,7 @@
         <v>75</v>
       </c>
       <c r="E495" s="3">
-        <v>1191.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F495" s="4">
         <v>80</v>
@@ -14822,7 +14822,7 @@
         <v>75</v>
       </c>
       <c r="E496" s="3">
-        <v>1191.82</v>
+        <v>1091.02</v>
       </c>
       <c r="F496" s="4">
         <v>80</v>
@@ -14851,7 +14851,7 @@
         <v>75</v>
       </c>
       <c r="E497" s="3">
-        <v>1192.27</v>
+        <v>1091.02</v>
       </c>
       <c r="F497" s="4">
         <v>80</v>
@@ -14880,7 +14880,7 @@
         <v>74.75</v>
       </c>
       <c r="E498" s="3">
-        <v>1192.72</v>
+        <v>1091.02</v>
       </c>
       <c r="F498" s="4">
         <v>80</v>
@@ -14909,7 +14909,7 @@
         <v>74.75</v>
       </c>
       <c r="E499" s="3">
-        <v>1193.17</v>
+        <v>1091.02</v>
       </c>
       <c r="F499" s="4">
         <v>80</v>
@@ -14938,7 +14938,7 @@
         <v>74.75</v>
       </c>
       <c r="E500" s="3">
-        <v>1193.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F500" s="4">
         <v>80</v>
@@ -14967,7 +14967,7 @@
         <v>74.75</v>
       </c>
       <c r="E501" s="3">
-        <v>1194.07</v>
+        <v>1091.02</v>
       </c>
       <c r="F501" s="4">
         <v>80</v>
@@ -14996,7 +14996,7 @@
         <v>74.5</v>
       </c>
       <c r="E502" s="3">
-        <v>1194.52</v>
+        <v>1091.02</v>
       </c>
       <c r="F502" s="4">
         <v>80</v>
@@ -15025,7 +15025,7 @@
         <v>74.5</v>
       </c>
       <c r="E503" s="3">
-        <v>1194.97</v>
+        <v>1091.02</v>
       </c>
       <c r="F503" s="4">
         <v>80</v>
@@ -15054,7 +15054,7 @@
         <v>74.75</v>
       </c>
       <c r="E504" s="3">
-        <v>1195.42</v>
+        <v>1091.02</v>
       </c>
       <c r="F504" s="4">
         <v>80</v>
@@ -15083,7 +15083,7 @@
         <v>75.25</v>
       </c>
       <c r="E505" s="3">
-        <v>1195.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F505" s="4">
         <v>80</v>
@@ -15112,7 +15112,7 @@
         <v>75.25</v>
       </c>
       <c r="E506" s="3">
-        <v>1196.32</v>
+        <v>1091.02</v>
       </c>
       <c r="F506" s="4">
         <v>80</v>
@@ -15141,7 +15141,7 @@
         <v>75</v>
       </c>
       <c r="E507" s="3">
-        <v>1196.77</v>
+        <v>1091.02</v>
       </c>
       <c r="F507" s="4">
         <v>80</v>
@@ -15170,7 +15170,7 @@
         <v>75.25</v>
       </c>
       <c r="E508" s="3">
-        <v>1197.22</v>
+        <v>1091.02</v>
       </c>
       <c r="F508" s="4">
         <v>80</v>
@@ -15199,7 +15199,7 @@
         <v>75</v>
       </c>
       <c r="E509" s="3">
-        <v>1197.67</v>
+        <v>1091.02</v>
       </c>
       <c r="F509" s="4">
         <v>80</v>
@@ -15228,7 +15228,7 @@
         <v>75.25</v>
       </c>
       <c r="E510" s="3">
-        <v>1198.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F510" s="4">
         <v>80</v>
@@ -15257,7 +15257,7 @@
         <v>75.25</v>
       </c>
       <c r="E511" s="3">
-        <v>1198.57</v>
+        <v>1091.02</v>
       </c>
       <c r="F511" s="4">
         <v>80</v>
@@ -15286,7 +15286,7 @@
         <v>75.25</v>
       </c>
       <c r="E512" s="3">
-        <v>1199.02</v>
+        <v>1091.02</v>
       </c>
       <c r="F512" s="4">
         <v>80</v>
@@ -15315,7 +15315,7 @@
         <v>75.25</v>
       </c>
       <c r="E513" s="3">
-        <v>1199.47</v>
+        <v>1091.02</v>
       </c>
       <c r="F513" s="4">
         <v>80</v>
@@ -15344,7 +15344,7 @@
         <v>75.25</v>
       </c>
       <c r="E514" s="3">
-        <v>1199.92</v>
+        <v>1091.02</v>
       </c>
       <c r="F514" s="4">
         <v>80</v>
@@ -15373,7 +15373,7 @@
         <v>75.5</v>
       </c>
       <c r="E515" s="3">
-        <v>1200.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F515" s="4">
         <v>80</v>
@@ -15402,7 +15402,7 @@
         <v>75.5</v>
       </c>
       <c r="E516" s="3">
-        <v>1200.82</v>
+        <v>1091.02</v>
       </c>
       <c r="F516" s="4">
         <v>80</v>
@@ -15431,7 +15431,7 @@
         <v>75.5</v>
       </c>
       <c r="E517" s="3">
-        <v>1201.27</v>
+        <v>1091.02</v>
       </c>
       <c r="F517" s="4">
         <v>80</v>
@@ -15460,7 +15460,7 @@
         <v>75.5</v>
       </c>
       <c r="E518" s="3">
-        <v>1201.72</v>
+        <v>1091.02</v>
       </c>
       <c r="F518" s="4">
         <v>80</v>
@@ -15489,7 +15489,7 @@
         <v>75.75</v>
       </c>
       <c r="E519" s="3">
-        <v>1202.17</v>
+        <v>1091.02</v>
       </c>
       <c r="F519" s="4">
         <v>80</v>
@@ -15518,7 +15518,7 @@
         <v>75.75</v>
       </c>
       <c r="E520" s="3">
-        <v>1202.6199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F520" s="4">
         <v>80</v>
@@ -15547,7 +15547,7 @@
         <v>75.75</v>
       </c>
       <c r="E521" s="3">
-        <v>1203.07</v>
+        <v>1091.02</v>
       </c>
       <c r="F521" s="4">
         <v>80</v>
@@ -15576,7 +15576,7 @@
         <v>75.75</v>
       </c>
       <c r="E522" s="3">
-        <v>1203.52</v>
+        <v>1091.02</v>
       </c>
       <c r="F522" s="4">
         <v>80</v>
@@ -15605,7 +15605,7 @@
         <v>76</v>
       </c>
       <c r="E523" s="3">
-        <v>1203.97</v>
+        <v>1091.02</v>
       </c>
       <c r="F523" s="4">
         <v>80</v>
@@ -15634,7 +15634,7 @@
         <v>76.25</v>
       </c>
       <c r="E524" s="3">
-        <v>1204.42</v>
+        <v>1091.02</v>
       </c>
       <c r="F524" s="4">
         <v>80</v>
@@ -15663,7 +15663,7 @@
         <v>76.5</v>
       </c>
       <c r="E525" s="3">
-        <v>1204.8699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F525" s="4">
         <v>80</v>
@@ -15692,7 +15692,7 @@
         <v>76.5</v>
       </c>
       <c r="E526" s="3">
-        <v>1205.32</v>
+        <v>1091.02</v>
       </c>
       <c r="F526" s="4">
         <v>80</v>
@@ -15721,7 +15721,7 @@
         <v>76.5</v>
       </c>
       <c r="E527" s="3">
-        <v>1205.77</v>
+        <v>1091.02</v>
       </c>
       <c r="F527" s="4">
         <v>80</v>
@@ -15750,7 +15750,7 @@
         <v>76.5</v>
       </c>
       <c r="E528" s="3">
-        <v>1206.22</v>
+        <v>1091.02</v>
       </c>
       <c r="F528" s="4">
         <v>80</v>
@@ -15779,7 +15779,7 @@
         <v>76.5</v>
       </c>
       <c r="E529" s="3">
-        <v>1206.67</v>
+        <v>1091.02</v>
       </c>
       <c r="F529" s="4">
         <v>80</v>
@@ -15808,7 +15808,7 @@
         <v>77.25</v>
       </c>
       <c r="E530" s="3">
-        <v>1207.1199999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F530" s="4">
         <v>80</v>
@@ -15837,7 +15837,7 @@
         <v>76.75</v>
       </c>
       <c r="E531" s="3">
-        <v>1207.57</v>
+        <v>1091.02</v>
       </c>
       <c r="F531" s="4">
         <v>80</v>
@@ -15866,7 +15866,7 @@
         <v>76.75</v>
       </c>
       <c r="E532" s="3">
-        <v>1208.02</v>
+        <v>1091.02</v>
       </c>
       <c r="F532" s="4">
         <v>80</v>
@@ -15895,7 +15895,7 @@
         <v>76.75</v>
       </c>
       <c r="E533" s="3">
-        <v>1208.47</v>
+        <v>1091.02</v>
       </c>
       <c r="F533" s="4">
         <v>80</v>
@@ -15924,7 +15924,7 @@
         <v>77.25</v>
       </c>
       <c r="E534" s="3">
-        <v>1208.92</v>
+        <v>1091.02</v>
       </c>
       <c r="F534" s="4">
         <v>80</v>
@@ -15953,7 +15953,7 @@
         <v>77.75</v>
       </c>
       <c r="E535" s="3">
-        <v>1209.3699999999999</v>
+        <v>1091.02</v>
       </c>
       <c r="F535" s="4">
         <v>80</v>
@@ -15982,7 +15982,7 @@
         <v>77.5</v>
       </c>
       <c r="E536" s="3">
-        <v>1209.82</v>
+        <v>1091.02</v>
       </c>
       <c r="F536" s="4">
         <v>80</v>
@@ -16011,7 +16011,7 @@
         <v>77.5</v>
       </c>
       <c r="E537" s="3">
-        <v>1210.27</v>
+        <v>1091.02</v>
       </c>
       <c r="F537" s="4">
         <v>80</v>
@@ -16040,7 +16040,7 @@
         <v>77.25</v>
       </c>
       <c r="E538" s="3">
-        <v>1210.72</v>
+        <v>1091.02</v>
       </c>
       <c r="F538" s="4">
         <v>80</v>
@@ -16069,7 +16069,7 @@
         <v>77</v>
       </c>
       <c r="E539" s="3">
-        <v>1211.17</v>
+        <v>1091.02</v>
       </c>
       <c r="F539" s="4">
         <v>80</v>
@@ -16098,7 +16098,7 @@
         <v>77</v>
       </c>
       <c r="E540" s="3">
-        <v>1261.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F540" s="4">
         <v>80</v>
@@ -16127,7 +16127,7 @@
         <v>77.25</v>
       </c>
       <c r="E541" s="3">
-        <v>1262.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F541" s="4">
         <v>80</v>
@@ -16156,7 +16156,7 @@
         <v>77.25</v>
       </c>
       <c r="E542" s="3">
-        <v>1262.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F542" s="4">
         <v>80</v>
@@ -16185,7 +16185,7 @@
         <v>77</v>
       </c>
       <c r="E543" s="3">
-        <v>1263.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F543" s="4">
         <v>80</v>
@@ -16214,7 +16214,7 @@
         <v>76.75</v>
       </c>
       <c r="E544" s="3">
-        <v>1263.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F544" s="4">
         <v>80</v>
@@ -16243,7 +16243,7 @@
         <v>76.75</v>
       </c>
       <c r="E545" s="3">
-        <v>1264.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F545" s="4">
         <v>80</v>
@@ -16272,7 +16272,7 @@
         <v>76.75</v>
       </c>
       <c r="E546" s="3">
-        <v>1264.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F546" s="4">
         <v>80</v>
@@ -16301,7 +16301,7 @@
         <v>76.75</v>
       </c>
       <c r="E547" s="3">
-        <v>1265.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F547" s="4">
         <v>80</v>
@@ -16330,7 +16330,7 @@
         <v>76.75</v>
       </c>
       <c r="E548" s="3">
-        <v>1265.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F548" s="4">
         <v>80</v>
@@ -16359,7 +16359,7 @@
         <v>76.75</v>
       </c>
       <c r="E549" s="3">
-        <v>1266.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F549" s="4">
         <v>80</v>
@@ -16388,7 +16388,7 @@
         <v>76.75</v>
       </c>
       <c r="E550" s="3">
-        <v>1266.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F550" s="4">
         <v>80</v>
@@ -16417,7 +16417,7 @@
         <v>76.75</v>
       </c>
       <c r="E551" s="3">
-        <v>1267.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F551" s="4">
         <v>80</v>
@@ -16446,7 +16446,7 @@
         <v>76.75</v>
       </c>
       <c r="E552" s="3">
-        <v>1267.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F552" s="4">
         <v>80</v>
@@ -16475,7 +16475,7 @@
         <v>76.75</v>
       </c>
       <c r="E553" s="3">
-        <v>1268.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F553" s="4">
         <v>80</v>
@@ -16504,7 +16504,7 @@
         <v>76.75</v>
       </c>
       <c r="E554" s="3">
-        <v>1268.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F554" s="4">
         <v>80</v>
@@ -16533,7 +16533,7 @@
         <v>76.75</v>
       </c>
       <c r="E555" s="3">
-        <v>1269.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F555" s="4">
         <v>80</v>
@@ -16562,7 +16562,7 @@
         <v>76.75</v>
       </c>
       <c r="E556" s="3">
-        <v>1269.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F556" s="4">
         <v>80</v>
@@ -16591,7 +16591,7 @@
         <v>77</v>
       </c>
       <c r="E557" s="3">
-        <v>1270.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F557" s="4">
         <v>80</v>
@@ -16620,7 +16620,7 @@
         <v>77</v>
       </c>
       <c r="E558" s="3">
-        <v>1270.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F558" s="4">
         <v>80</v>
@@ -16649,7 +16649,7 @@
         <v>77</v>
       </c>
       <c r="E559" s="3">
-        <v>1271.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F559" s="4">
         <v>80</v>
@@ -16678,7 +16678,7 @@
         <v>77</v>
       </c>
       <c r="E560" s="3">
-        <v>1271.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F560" s="4">
         <v>80</v>
@@ -16707,7 +16707,7 @@
         <v>77</v>
       </c>
       <c r="E561" s="3">
-        <v>1272.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F561" s="4">
         <v>80</v>
@@ -16736,7 +16736,7 @@
         <v>77</v>
       </c>
       <c r="E562" s="3">
-        <v>1272.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F562" s="4">
         <v>80</v>
@@ -16765,7 +16765,7 @@
         <v>77.25</v>
       </c>
       <c r="E563" s="3">
-        <v>1273.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F563" s="4">
         <v>80</v>
@@ -16794,7 +16794,7 @@
         <v>77.5</v>
       </c>
       <c r="E564" s="3">
-        <v>1273.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F564" s="4">
         <v>80</v>
@@ -16823,7 +16823,7 @@
         <v>77.75</v>
       </c>
       <c r="E565" s="3">
-        <v>1274.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F565" s="4">
         <v>80</v>
@@ -16852,7 +16852,7 @@
         <v>77.75</v>
       </c>
       <c r="E566" s="3">
-        <v>1274.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F566" s="4">
         <v>80</v>
@@ -16881,7 +16881,7 @@
         <v>77.75</v>
       </c>
       <c r="E567" s="3">
-        <v>1275.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F567" s="4">
         <v>80</v>
@@ -16910,7 +16910,7 @@
         <v>77.75</v>
       </c>
       <c r="E568" s="3">
-        <v>1275.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F568" s="4">
         <v>80</v>
@@ -16939,7 +16939,7 @@
         <v>77.75</v>
       </c>
       <c r="E569" s="3">
-        <v>1276.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F569" s="4">
         <v>80</v>
@@ -16968,7 +16968,7 @@
         <v>77.75</v>
       </c>
       <c r="E570" s="3">
-        <v>1276.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F570" s="4">
         <v>80</v>
@@ -16997,7 +16997,7 @@
         <v>77.75</v>
       </c>
       <c r="E571" s="3">
-        <v>1277.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F571" s="4">
         <v>80</v>
@@ -17026,7 +17026,7 @@
         <v>77.75</v>
       </c>
       <c r="E572" s="3">
-        <v>1277.8</v>
+        <v>1127.8</v>
       </c>
       <c r="F572" s="4">
         <v>80</v>
@@ -17055,7 +17055,7 @@
         <v>77.5</v>
       </c>
       <c r="E573" s="3">
-        <v>1278.3</v>
+        <v>1127.8</v>
       </c>
       <c r="F573" s="4">
         <v>80</v>
@@ -17084,7 +17084,7 @@
         <v>77.5</v>
       </c>
       <c r="E574" s="3">
-        <v>1330.6799999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="F574" s="4">
         <v>80</v>
@@ -17113,7 +17113,7 @@
         <v>77.75</v>
       </c>
       <c r="E575" s="3">
-        <v>1331.23</v>
+        <v>1164.58</v>
       </c>
       <c r="F575" s="4">
         <v>80</v>
@@ -17142,7 +17142,7 @@
         <v>78</v>
       </c>
       <c r="E576" s="3">
-        <v>1331.78</v>
+        <v>1164.58</v>
       </c>
       <c r="F576" s="4">
         <v>80</v>
@@ -17171,7 +17171,7 @@
         <v>78</v>
       </c>
       <c r="E577" s="3">
-        <v>1332.33</v>
+        <v>1164.58</v>
       </c>
       <c r="F577" s="4">
         <v>80</v>
@@ -17200,7 +17200,7 @@
         <v>78</v>
       </c>
       <c r="E578" s="3">
-        <v>1332.88</v>
+        <v>1164.58</v>
       </c>
       <c r="F578" s="4">
         <v>80</v>
@@ -17229,7 +17229,7 @@
         <v>77.75</v>
       </c>
       <c r="E579" s="3">
-        <v>1333.4299999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="F579" s="4">
         <v>80</v>
@@ -17258,7 +17258,7 @@
         <v>77.75</v>
       </c>
       <c r="E580" s="3">
-        <v>1333.98</v>
+        <v>1164.58</v>
       </c>
       <c r="F580" s="4">
         <v>80</v>
@@ -17287,7 +17287,7 @@
         <v>77.75</v>
       </c>
       <c r="E581" s="3">
-        <v>1334.53</v>
+        <v>1164.58</v>
       </c>
       <c r="F581" s="4">
         <v>80</v>
@@ -17316,7 +17316,7 @@
         <v>78.25</v>
       </c>
       <c r="E582" s="3">
-        <v>1335.08</v>
+        <v>1164.58</v>
       </c>
       <c r="F582" s="4">
         <v>80</v>
@@ -17345,7 +17345,7 @@
         <v>78.25</v>
       </c>
       <c r="E583" s="3">
-        <v>1335.63</v>
+        <v>1164.58</v>
       </c>
       <c r="F583" s="4">
         <v>80</v>
@@ -17374,7 +17374,7 @@
         <v>78.5</v>
       </c>
       <c r="E584" s="3">
-        <v>1336.1799999999998</v>
+        <v>1164.58</v>
       </c>
       <c r="F584" s="4">
         <v>80</v>
@@ -17403,7 +17403,7 @@
         <v>78.5</v>
       </c>
       <c r="E585" s="3">
-        <v>1336.73</v>
+        <v>1164.58</v>
       </c>
       <c r="F585" s="4">
         <v>80</v>
@@ -17432,7 +17432,7 @@
         <v>77.75</v>
       </c>
       <c r="E586" s="3">
-        <v>1337.28</v>
+        <v>1164.58</v>
       </c>
       <c r="F586" s="4">
         <v>80</v>
@@ -17461,7 +17461,7 @@
         <v>78.25</v>
       </c>
       <c r="E587" s="3">
-        <v>1337.83</v>
+        <v>1164.58</v>
       </c>
       <c r="F587" s="4">
         <v>80</v>
@@ -17490,7 +17490,7 @@
         <v>78.25</v>
       </c>
       <c r="E588" s="3">
-        <v>1390.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F588" s="4">
         <v>80</v>
@@ -17519,7 +17519,7 @@
         <v>78</v>
       </c>
       <c r="E589" s="3">
-        <v>1391.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F589" s="4">
         <v>80</v>
@@ -17548,7 +17548,7 @@
         <v>77.75</v>
       </c>
       <c r="E590" s="3">
-        <v>1392.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F590" s="4">
         <v>80</v>
@@ -17577,7 +17577,7 @@
         <v>78.25</v>
       </c>
       <c r="E591" s="3">
-        <v>1392.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F591" s="4">
         <v>80</v>
@@ -17606,7 +17606,7 @@
         <v>78</v>
       </c>
       <c r="E592" s="3">
-        <v>1393.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F592" s="4">
         <v>80</v>
@@ -17635,7 +17635,7 @@
         <v>78.25</v>
       </c>
       <c r="E593" s="3">
-        <v>1393.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F593" s="4">
         <v>80</v>
@@ -17664,7 +17664,7 @@
         <v>78.25</v>
       </c>
       <c r="E594" s="3">
-        <v>1394.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F594" s="4">
         <v>80</v>
@@ -17693,7 +17693,7 @@
         <v>78</v>
       </c>
       <c r="E595" s="3">
-        <v>1395.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F595" s="4">
         <v>80</v>
@@ -17722,7 +17722,7 @@
         <v>78.25</v>
       </c>
       <c r="E596" s="3">
-        <v>1395.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F596" s="4">
         <v>80</v>
@@ -17751,7 +17751,7 @@
         <v>78.25</v>
       </c>
       <c r="E597" s="3">
-        <v>1396.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F597" s="4">
         <v>80</v>
@@ -17780,7 +17780,7 @@
         <v>77.75</v>
       </c>
       <c r="E598" s="3">
-        <v>1396.96</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F598" s="4">
         <v>80</v>
@@ -17809,7 +17809,7 @@
         <v>77.75</v>
       </c>
       <c r="E599" s="3">
-        <v>1397.56</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F599" s="4">
         <v>80</v>
@@ -17838,7 +17838,7 @@
         <v>77.25</v>
       </c>
       <c r="E600" s="3">
-        <v>1398.1599999999999</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F600" s="4">
         <v>80</v>
@@ -17867,7 +17867,7 @@
         <v>77.5</v>
       </c>
       <c r="E601" s="3">
-        <v>1398.7599999999998</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F601" s="4">
         <v>80</v>
@@ -17896,7 +17896,7 @@
         <v>77.5</v>
       </c>
       <c r="E602" s="3">
-        <v>1399.36</v>
+        <v>1201.3600000000001</v>
       </c>
       <c r="F602" s="4">
         <v>80</v>
